--- a/doc/role_function_matrix.xlsx
+++ b/doc/role_function_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_\Uni\20-21_2\Adatb_alapu_rendszerek\G\Projekt\Adatb2Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C81F77-4A19-46B3-9622-81B98A1C61DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5544B3-FE71-4710-BC78-86EAB06BCF2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" xr2:uid="{F82EB61B-0F1F-493A-9BA2-005ACE3514F3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Látogató</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Szerep-funkció mátrix</t>
+  </si>
+  <si>
+    <t>Adminisztráció</t>
   </si>
 </sst>
 </file>
@@ -135,17 +138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
@@ -360,11 +352,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -373,9 +391,52 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -385,10 +446,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -397,65 +458,11 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,15 +478,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,68 +499,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +879,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,165 +890,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="B10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1049,15 +1078,22 @@
       <c r="J13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:D6"/>
+  <mergeCells count="15">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/doc/role_function_matrix.xlsx
+++ b/doc/role_function_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_\Uni\20-21_2\Adatb_alapu_rendszerek\G\Projekt\Adatb2Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5544B3-FE71-4710-BC78-86EAB06BCF2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B88D5-9FE6-493B-9846-66CC7DC3B840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" xr2:uid="{F82EB61B-0F1F-493A-9BA2-005ACE3514F3}"/>
   </bookViews>
@@ -511,6 +511,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -520,47 +526,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,7 +879,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,121 +890,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -1023,7 +1023,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
@@ -1079,6 +1079,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="I3:I9"/>
@@ -1087,13 +1094,6 @@
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
